--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A7DBF9-0E4E-48EB-861F-E406F6FBEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ANNOUNCEMENT</t>
+  </si>
+  <si>
+    <t>Song practice this week will be as follows:
+09/23/2025: 6:30PM to 8:30M
+09/25/2025: 6:00PM to 8:00PM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +51,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,17 +73,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +256,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:B2" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +531,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45920</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A7DBF9-0E4E-48EB-861F-E406F6FBEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172F5FC-E3A2-4124-8953-906B10D2EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,7 @@
     <t>ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>Song practice this week will be as follows:
-09/23/2025: 6:30PM to 8:30M
-09/25/2025: 6:00PM to 8:00PM</t>
+    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm and on 9/25/2025: 6:00PM to 8:00PM</t>
   </si>
 </sst>
 </file>
@@ -148,25 +146,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -223,26 +202,45 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -259,11 +257,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B2" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45920</v>
       </c>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172F5FC-E3A2-4124-8953-906B10D2EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881F0B2-A2A7-42E2-B5C3-5C045FE74E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm and on 9/25/2025: 6:00PM to 8:00PM</t>
+    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm and on 9/25/2025 from 6:00PM to 8:00PM</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881F0B2-A2A7-42E2-B5C3-5C045FE74E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D0BCE-D94E-4E2A-8F22-719E5E9CFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm and on 9/25/2025 from 6:00PM to 8:00PM</t>
+    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm and on 9/25/2025 from 6:00pm - 8:00pm</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D0BCE-D94E-4E2A-8F22-719E5E9CFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14514F30-B924-4EBA-843F-4DA844C25585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm and on 9/25/2025 from 6:00pm - 8:00pm</t>
+    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm. This practice is specifically for the 40th year anniversary. We would like everyone to make it to this practice. Peb yuav muaj kawm nkauj rau hnub 9/23/2025 thaum 6:30pm txog 8:30pm. Qhov no yog special rau 40 xyoo. Xav kom sawvdaws tuaj.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45920</v>
       </c>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14514F30-B924-4EBA-843F-4DA844C25585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF2009-DC03-47D1-A920-88894D8A5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DATE</t>
   </si>
@@ -33,7 +33,13 @@
     <t>ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm. This practice is specifically for the 40th year anniversary. We would like everyone to make it to this practice. Peb yuav muaj kawm nkauj rau hnub 9/23/2025 thaum 6:30pm txog 8:30pm. Qhov no yog special rau 40 xyoo. Xav kom sawvdaws tuaj.</t>
+    <t>Lus Tshaj Tawm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm. This practice is specifically for the 40th year anniversary. We would like everyone to make it to this practice. </t>
+  </si>
+  <si>
+    <t>Peb yuav muaj kawm nkauj rau hnub 9/23/2025 thaum 6:30pm txog 8:30pm. Qhov no yog special rau 40 xyoo. Xav kom sawvdaws tuaj.</t>
   </si>
 </sst>
 </file>
@@ -63,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -115,18 +121,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,11 +163,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -146,12 +184,66 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -202,45 +294,26 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -257,11 +330,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B2" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C2" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{95D49EAF-9BBD-4A79-9DB7-A191C704E430}" name="Lus Tshaj Tawm" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,33 +604,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="49.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45920</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF2009-DC03-47D1-A920-88894D8A5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05849B-BFA3-461D-AE17-DB4A27B1F436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DATE</t>
   </si>
@@ -33,13 +33,19 @@
     <t>ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>Lus Tshaj Tawm</t>
-  </si>
-  <si>
     <t xml:space="preserve">We will be having song practice on 9/23/2025 from 6:30pm - 8:30pm. This practice is specifically for the 40th year anniversary. We would like everyone to make it to this practice. </t>
   </si>
   <si>
     <t>Peb yuav muaj kawm nkauj rau hnub 9/23/2025 thaum 6:30pm txog 8:30pm. Qhov no yog special rau 40 xyoo. Xav kom sawvdaws tuaj.</t>
+  </si>
+  <si>
+    <t>LUS TSHAJ TAWM</t>
+  </si>
+  <si>
+    <t>Song practice this coming Thursday 9/25 will consist for both Sunday worship and 40 years anniversary.</t>
+  </si>
+  <si>
+    <t>Hnub Thursday, 9/25 no peb yuav kawm nkauj rau lub Sunday thiab rau lub 40 xyoo.</t>
   </si>
 </sst>
 </file>
@@ -184,31 +190,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -294,13 +275,36 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -308,12 +312,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -330,12 +336,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C2" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C3" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{95D49EAF-9BBD-4A79-9DB7-A191C704E430}" name="Lus Tshaj Tawm" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{95D49EAF-9BBD-4A79-9DB7-A191C704E430}" name="LUS TSHAJ TAWM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -634,10 +640,21 @@
         <v>45920</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05849B-BFA3-461D-AE17-DB4A27B1F436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DD7EE-39B1-45B9-B943-062D752F9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Hnub Thursday, 9/25 no peb yuav kawm nkauj rau lub Sunday thiab rau lub 40 xyoo.</t>
+  </si>
+  <si>
+    <t>Song practice on 9/30/25 from 6:30pm to 8:30pm</t>
+  </si>
+  <si>
+    <t>Muaj kawm nkauj hnub 9/30/25 thaum 6 moo 30 txog 8 moo 30</t>
+  </si>
+  <si>
+    <t>We will be wearing any shade of blue for the 40 years anniversary</t>
+  </si>
+  <si>
+    <t>Peb hnav xim xiav rau lub 40 xyoo anniversary</t>
   </si>
 </sst>
 </file>
@@ -336,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C3" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="1"/>
@@ -610,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +669,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45928</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45928</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DD7EE-39B1-45B9-B943-062D752F9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F1F8B-3E21-49C1-AC48-6D416CF00D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Peb hnav xim xiav rau lub 40 xyoo anniversary</t>
+  </si>
+  <si>
+    <t>CCLI reporting completed as of 10/1/25 pending youth's songs and any special songs.</t>
+  </si>
+  <si>
+    <t>Daim ntawv ceeb toom CCLI twb ua tiav rau hnub tim 10/1/25, tshuav cov nkauj uas cov hluas hu thiab tej nkauj tshwj xeeb xwb.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -190,6 +196,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C5" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="1"/>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +700,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F1F8B-3E21-49C1-AC48-6D416CF00D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51B6DE-6F44-432A-BFBA-34B23281ADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -169,6 +169,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -196,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,7 +649,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/announcements/announcements.xlsx
+++ b/announcements/announcements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51B6DE-6F44-432A-BFBA-34B23281ADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42729B-17FC-4786-A55F-A7BD594E65E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Daim ntawv ceeb toom CCLI twb ua tiav rau hnub tim 10/1/25, tshuav cov nkauj uas cov hluas hu thiab tej nkauj tshwj xeeb xwb.</t>
+  </si>
+  <si>
+    <t>Practice on 10/2/25 will be moved to 7-9pm instead.</t>
+  </si>
+  <si>
+    <t>Peb kawm nkauj hnub 10/2/25 thaum 7 moo txog 9 moo</t>
   </si>
 </sst>
 </file>
@@ -372,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C6" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ANNOUNCEMENT" dataDxfId="1"/>
@@ -646,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -726,6 +732,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
